--- a/data_info/Fake OSCEs.xlsx
+++ b/data_info/Fake OSCEs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nickyee\nickyee\ortho_clinic\data_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454DDDB1-709F-40AF-BF9A-11B27E0C854D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA18A4EA-AA45-4113-97C3-3AA1C1A45406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94805D91-36A4-475E-BB75-75B855A1DCA3}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="219">
   <si>
     <t>Completed file name</t>
   </si>
@@ -561,9 +562,6 @@
   </si>
   <si>
     <t>followup</t>
-  </si>
-  <si>
-    <t>folllowup</t>
   </si>
   <si>
     <t>New Recording 24</t>
@@ -1130,7 +1128,7 @@
   <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" s="6">
         <v>0.54236111111111107</v>
@@ -1226,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F3" s="6">
         <v>0.46875</v>
@@ -1253,7 +1251,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F4" s="6">
         <v>0.54722222222222228</v>
@@ -1280,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="6">
         <v>0.31597222222222221</v>
@@ -1307,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F6" s="6">
         <v>0.40833333333333333</v>
@@ -1334,7 +1332,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F7" s="6">
         <v>0.33750000000000002</v>
@@ -1361,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F8" s="6">
         <v>0.33541666666666664</v>
@@ -1388,13 +1386,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F9" s="6">
         <v>0.17847222222222223</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="0"/>
@@ -1417,7 +1415,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F10" s="6">
         <v>0.30555555555555558</v>
@@ -1445,7 +1443,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" s="6">
         <v>0.22013888888888888</v>
@@ -1473,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12" s="6">
         <v>0.27361111111111114</v>
@@ -1501,7 +1499,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F13" s="6">
         <v>0.17777777777777778</v>
@@ -1529,7 +1527,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F14" s="6">
         <v>0.30902777777777779</v>
@@ -1557,7 +1555,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" s="6">
         <v>0.17152777777777778</v>
@@ -1585,7 +1583,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" s="6">
         <v>0.30208333333333331</v>
@@ -1613,7 +1611,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F17" s="6">
         <v>0.20694444444444443</v>
@@ -1641,7 +1639,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F18" s="6">
         <v>0.31597222222222221</v>
@@ -1669,7 +1667,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F19" s="6">
         <v>0.23749999999999999</v>
@@ -1697,7 +1695,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F20" s="6">
         <v>0.28402777777777777</v>
@@ -1725,7 +1723,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F21" s="6">
         <v>0.24166666666666667</v>
@@ -1753,7 +1751,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F22" s="6">
         <v>0.29583333333333334</v>
@@ -1781,7 +1779,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F23" s="6">
         <v>0.19375000000000001</v>
@@ -1809,7 +1807,7 @@
         <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F24" s="6">
         <v>0.27013888888888887</v>
@@ -1837,7 +1835,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F25" s="6">
         <v>0.16875000000000001</v>
@@ -1865,7 +1863,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F26" s="6">
         <v>0.29583333333333334</v>
@@ -1893,7 +1891,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F27" s="6">
         <v>0.17777777777777778</v>
@@ -1921,7 +1919,7 @@
         <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F28" s="6">
         <v>0.36041666666666666</v>
@@ -1949,7 +1947,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F29" s="6">
         <v>0.22500000000000001</v>
@@ -1977,7 +1975,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F30" s="6">
         <v>0.25624999999999998</v>
@@ -2005,7 +2003,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F31" s="6">
         <v>0.15208333333333332</v>
@@ -2034,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F32" s="6">
         <v>0.21666666666666667</v>
@@ -2062,7 +2060,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F33" s="6">
         <v>0.18958333333333333</v>
@@ -2090,7 +2088,7 @@
         <v>7</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F34" s="6">
         <v>0.2361111111111111</v>
@@ -2118,7 +2116,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F35" s="6">
         <v>0.21944444444444444</v>
@@ -2146,7 +2144,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F36" s="6">
         <v>0.30138888888888887</v>
@@ -2174,7 +2172,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F37" s="6">
         <v>0.1875</v>
@@ -2202,7 +2200,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F38" s="6">
         <v>0.32500000000000001</v>
@@ -2230,7 +2228,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F39" s="6">
         <v>0.15902777777777777</v>
@@ -2258,7 +2256,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F40" s="6">
         <v>0.22916666666666666</v>
@@ -2286,7 +2284,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F41" s="6">
         <v>0.22500000000000001</v>
@@ -2314,7 +2312,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F42" s="6">
         <v>0.23125000000000001</v>
@@ -2342,7 +2340,7 @@
         <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F43" s="6">
         <v>0.16458333333333333</v>
@@ -2370,7 +2368,7 @@
         <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F44" s="6">
         <v>0.23194444444444445</v>
@@ -2399,7 +2397,7 @@
         <v>7</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F45" s="6">
         <v>0.15694444444444444</v>
@@ -3432,11 +3430,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5a138c51-e878-46e6-aebb-b24dce4162af" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3659,20 +3658,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5a138c51-e878-46e6-aebb-b24dce4162af" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D3D38D-8F51-4C78-8B2D-1ED28DA60563}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54E7A74F-BB82-4FF1-BAB9-C0AA83ABB081}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5a138c51-e878-46e6-aebb-b24dce4162af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3697,9 +3693,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54E7A74F-BB82-4FF1-BAB9-C0AA83ABB081}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D3D38D-8F51-4C78-8B2D-1ED28DA60563}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5a138c51-e878-46e6-aebb-b24dce4162af"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>